--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-AL-algemeen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-AL-algemeen.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF3FAD0-15CA-435E-A0C1-05D65FE897A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CC1E48E5-679F-4591-8AE5-54626E6CC188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2B63D559-6F3A-4980-9AFE-59F72BEF6D6F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D5C20DA-B4D3-470F-9AC0-E87C1FBFF75A}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-AL-algemee" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-AL-algemee'!$A$1:$AJ$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-AL-algemee'!$A$1:$AJ$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="93">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -268,6 +268,27 @@
     <t>LEGENDA</t>
   </si>
   <si>
+    <t>TABEL</t>
+  </si>
+  <si>
+    <t>ASSETKADER</t>
+  </si>
+  <si>
+    <t>ASSETNUMMER</t>
+  </si>
+  <si>
+    <t>TABEL_PLAATSBEPALING</t>
+  </si>
+  <si>
+    <t>TABEL_BESTELTEKENINGEN</t>
+  </si>
+  <si>
+    <t>TABEL_UITZETTING</t>
+  </si>
+  <si>
+    <t>TABEL_UITSLAG</t>
+  </si>
+  <si>
     <t>TEKENBLAD_WERKZAAMHEDEN_NUMMER</t>
   </si>
   <si>
@@ -275,6 +296,12 @@
   </si>
   <si>
     <t>TEKENBLAD_WERKZAAMHEDEN_LIJST</t>
+  </si>
+  <si>
+    <t>TABEL_PLAATSBEPALING_TRAVERSEN</t>
+  </si>
+  <si>
+    <t>ASSETBESCHRIJVING</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1161,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DC3F25-288A-447A-96A4-DD0A6A19DA21}">
-  <dimension ref="A1:AJ37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9D5373-233D-43F3-A524-C9F31FF299B8}">
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1296,52 +1325,22 @@
       <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <v>253</v>
-      </c>
-      <c r="M3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
       <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -1350,13 +1349,13 @@
         <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>7</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <v>7</v>
@@ -1365,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
         <v>41</v>
@@ -1375,14 +1374,8 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
       <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -1391,7 +1384,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -1406,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="L5">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M5" t="s">
         <v>41</v>
@@ -1417,13 +1410,10 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -1432,7 +1422,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -1458,10 +1448,10 @@
         <v>36</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1473,7 +1463,7 @@
         <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -1499,10 +1489,10 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1514,7 +1504,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -1540,10 +1530,13 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>3364</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -1552,7 +1545,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -1578,10 +1571,13 @@
         <v>36</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -1616,10 +1612,13 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -1654,10 +1653,10 @@
         <v>36</v>
       </c>
       <c r="B12">
-        <v>34</v>
+        <v>3364</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -1692,10 +1691,10 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -1730,10 +1729,10 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
@@ -1742,7 +1741,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>7</v>
@@ -1768,13 +1767,10 @@
         <v>36</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
@@ -1783,7 +1779,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H15">
         <v>7</v>
@@ -1809,13 +1805,10 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -1824,7 +1817,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -1849,14 +1842,8 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
       <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
@@ -1865,7 +1852,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>7</v>
@@ -1880,7 +1867,7 @@
         <v>7</v>
       </c>
       <c r="L17">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M17" t="s">
         <v>41</v>
@@ -1890,14 +1877,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
       <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
@@ -1906,7 +1887,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -1921,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="L18">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M18" t="s">
         <v>41</v>
@@ -1931,14 +1912,8 @@
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
       <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
@@ -1947,7 +1922,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -1962,7 +1937,7 @@
         <v>7</v>
       </c>
       <c r="L19">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M19" t="s">
         <v>41</v>
@@ -1972,14 +1947,8 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
       <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
@@ -2003,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="L20">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M20" t="s">
         <v>41</v>
@@ -2013,14 +1982,8 @@
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
       <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
@@ -2044,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="L21">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M21" t="s">
         <v>41</v>
@@ -2054,14 +2017,8 @@
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
       <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
@@ -2085,7 +2042,7 @@
         <v>7</v>
       </c>
       <c r="L22">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M22" t="s">
         <v>41</v>
@@ -2096,13 +2053,10 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
@@ -2137,13 +2091,13 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
@@ -2152,7 +2106,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>7</v>
@@ -2167,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="L24">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s">
         <v>41</v>
@@ -2178,10 +2132,10 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <v>12</v>
@@ -2193,7 +2147,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H25">
         <v>7</v>
@@ -2219,13 +2173,13 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
@@ -2234,7 +2188,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>7</v>
@@ -2259,11 +2213,14 @@
       <c r="A27" t="s">
         <v>36</v>
       </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
@@ -2272,7 +2229,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -2297,8 +2254,14 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -2332,8 +2295,14 @@
       <c r="A29" t="s">
         <v>36</v>
       </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
@@ -2342,7 +2311,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>7</v>
@@ -2367,8 +2336,14 @@
       <c r="A30" t="s">
         <v>36</v>
       </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
@@ -2377,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H30">
         <v>7</v>
@@ -2403,10 +2378,10 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31">
         <v>12</v>
@@ -2418,7 +2393,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>7</v>
@@ -2444,10 +2419,13 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
@@ -2456,7 +2434,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H32">
         <v>7</v>
@@ -2474,7 +2452,7 @@
         <v>253</v>
       </c>
       <c r="M32" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -2482,10 +2460,13 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -2494,7 +2475,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H33">
         <v>7</v>
@@ -2509,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="L33">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M33" t="s">
         <v>41</v>
@@ -2520,13 +2501,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
@@ -2535,7 +2516,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>7</v>
@@ -2553,7 +2534,7 @@
         <v>253</v>
       </c>
       <c r="M34" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -2561,13 +2542,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
@@ -2576,7 +2557,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>7</v>
@@ -2601,14 +2582,11 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>30</v>
-      </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -2617,7 +2595,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>7</v>
@@ -2635,54 +2613,399 @@
         <v>253</v>
       </c>
       <c r="M36" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>253</v>
+      </c>
+      <c r="M37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>253</v>
+      </c>
+      <c r="M38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>253</v>
+      </c>
+      <c r="M39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>7</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <v>253</v>
+      </c>
+      <c r="M40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>253</v>
+      </c>
+      <c r="M41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>7</v>
+      </c>
+      <c r="L42">
+        <v>253</v>
+      </c>
+      <c r="M42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43">
+        <v>27</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="L43">
+        <v>253</v>
+      </c>
+      <c r="M43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <v>7</v>
+      </c>
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>253</v>
+      </c>
+      <c r="M44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>7</v>
+      </c>
+      <c r="K45">
+        <v>7</v>
+      </c>
+      <c r="L45">
+        <v>253</v>
+      </c>
+      <c r="M45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
         <v>31</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C46" t="s">
         <v>57</v>
       </c>
-      <c r="D37">
+      <c r="D46">
         <v>27</v>
       </c>
-      <c r="E37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
         <v>40</v>
       </c>
-      <c r="H37">
-        <v>7</v>
-      </c>
-      <c r="I37">
-        <v>7</v>
-      </c>
-      <c r="J37">
-        <v>7</v>
-      </c>
-      <c r="K37">
-        <v>7</v>
-      </c>
-      <c r="L37">
-        <v>253</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="J46">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>253</v>
+      </c>
+      <c r="M46" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ37" xr:uid="{A5DC3F25-288A-447A-96A4-DD0A6A19DA21}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ37">
-      <sortCondition ref="C1:C37"/>
+  <autoFilter ref="A1:AJ46" xr:uid="{FB9D5373-233D-43F3-A524-C9F31FF299B8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ46">
+      <sortCondition ref="C1:C46"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-AL-algemeen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-AL-algemeen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CC1E48E5-679F-4591-8AE5-54626E6CC188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B9385367-11FF-46D1-8C7A-3EE7447D9EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D5C20DA-B4D3-470F-9AC0-E87C1FBFF75A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C72E3A69-90AE-4D03-AF6A-3E41C5E70DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-AL-algemee" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -277,6 +277,9 @@
     <t>ASSETNUMMER</t>
   </si>
   <si>
+    <t>ASSETBESCHRIJVING</t>
+  </si>
+  <si>
     <t>TABEL_PLAATSBEPALING</t>
   </si>
   <si>
@@ -299,9 +302,6 @@
   </si>
   <si>
     <t>TABEL_PLAATSBEPALING_TRAVERSEN</t>
-  </si>
-  <si>
-    <t>ASSETBESCHRIJVING</t>
   </si>
 </sst>
 </file>
@@ -1161,11 +1161,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9D5373-233D-43F3-A524-C9F31FF299B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E53673-8352-490F-B9B8-6F8B12264FA4}">
   <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1326,13 +1326,34 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
@@ -1878,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
@@ -1913,7 +1934,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
@@ -1948,7 +1969,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
@@ -1983,7 +2004,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
@@ -2018,7 +2039,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
@@ -2621,7 +2642,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
@@ -2656,7 +2677,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -2691,7 +2712,7 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
@@ -3003,7 +3024,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ46" xr:uid="{FB9D5373-233D-43F3-A524-C9F31FF299B8}">
+  <autoFilter ref="A1:AJ46" xr:uid="{F4E53673-8352-490F-B9B8-6F8B12264FA4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ46">
       <sortCondition ref="C1:C46"/>
     </sortState>

--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-AL-algemeen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-AL-algemeen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B9385367-11FF-46D1-8C7A-3EE7447D9EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED26200-CDDB-4894-9448-8735306D046C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C72E3A69-90AE-4D03-AF6A-3E41C5E70DF7}"/>
+    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{C72E3A69-90AE-4D03-AF6A-3E41C5E70DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-AL-algemee" sheetId="1" r:id="rId1"/>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
